--- a/Aufgabe01/Aufgabe01-2.xlsx
+++ b/Aufgabe01/Aufgabe01-2.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eli\Documents\EIA2\Aufgabe01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haaseeli\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A54299FB-30F9-4ED4-8F0C-9356CC976265}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{01EEC9D0-FF12-48BB-901C-CCEB55D4FC16}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11265" windowHeight="7665" xr2:uid="{22657D25-2CEB-4B11-8978-B1351587AC60}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="34320" windowHeight="17625" xr2:uid="{22657D25-2CEB-4B11-8978-B1351587AC60}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="54">
   <si>
     <t>Tracetable Boxes</t>
   </si>
@@ -217,6 +217,9 @@
   </si>
   <si>
     <t>Parameterdefinition</t>
+  </si>
+  <si>
+    <t>Schleife wiederholt sich je nach Variable und bildet die Boxen.</t>
   </si>
 </sst>
 </file>
@@ -628,10 +631,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19751F4C-73F3-44E9-8A29-81C3AD47C592}">
-  <dimension ref="A1:H76"/>
+  <dimension ref="A1:H78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C69" sqref="C69"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C78" sqref="C78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1496,6 +1499,11 @@
         <v>51</v>
       </c>
     </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C78" t="s">
+        <v>53</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
